--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd200r1-Cd200.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd200r1-Cd200.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd200r1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.51371610744873</v>
+        <v>9.694494000000001</v>
       </c>
       <c r="H2">
-        <v>9.51371610744873</v>
+        <v>29.083482</v>
       </c>
       <c r="I2">
-        <v>0.4560190159371293</v>
+        <v>0.4508175825708872</v>
       </c>
       <c r="J2">
-        <v>0.4560190159371293</v>
+        <v>0.4523680639381478</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.8800794591802</v>
+        <v>63.24146666666667</v>
       </c>
       <c r="N2">
-        <v>60.8800794591802</v>
+        <v>189.7244</v>
       </c>
       <c r="O2">
-        <v>0.6946742538587175</v>
+        <v>0.691260822592742</v>
       </c>
       <c r="P2">
-        <v>0.6946742538587175</v>
+        <v>0.7565855924568045</v>
       </c>
       <c r="Q2">
-        <v>579.1957925735612</v>
+        <v>613.0940191512001</v>
       </c>
       <c r="R2">
-        <v>579.1957925735612</v>
+        <v>5517.8461723608</v>
       </c>
       <c r="S2">
-        <v>0.3167846696415119</v>
+        <v>0.3116325329672229</v>
       </c>
       <c r="T2">
-        <v>0.3167846696415119</v>
+        <v>0.3422551596631812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.51371610744873</v>
+        <v>9.694494000000001</v>
       </c>
       <c r="H3">
-        <v>9.51371610744873</v>
+        <v>29.083482</v>
       </c>
       <c r="I3">
-        <v>0.4560190159371293</v>
+        <v>0.4508175825708872</v>
       </c>
       <c r="J3">
-        <v>0.4560190159371293</v>
+        <v>0.4523680639381478</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.84370649929225</v>
+        <v>2.977970666666666</v>
       </c>
       <c r="N3">
-        <v>1.84370649929225</v>
+        <v>8.933911999999999</v>
       </c>
       <c r="O3">
-        <v>0.02103767682479892</v>
+        <v>0.0325507070154981</v>
       </c>
       <c r="P3">
-        <v>0.02103767682479892</v>
+        <v>0.03562677812383096</v>
       </c>
       <c r="Q3">
-        <v>17.54050021972459</v>
+        <v>28.869918760176</v>
       </c>
       <c r="R3">
-        <v>17.54050021972459</v>
+        <v>259.829268841584</v>
       </c>
       <c r="S3">
-        <v>0.009593580683248155</v>
+        <v>0.01467443104770007</v>
       </c>
       <c r="T3">
-        <v>0.009593580683248155</v>
+        <v>0.01611641664423137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.51371610744873</v>
+        <v>9.694494000000001</v>
       </c>
       <c r="H4">
-        <v>9.51371610744873</v>
+        <v>29.083482</v>
       </c>
       <c r="I4">
-        <v>0.4560190159371293</v>
+        <v>0.4508175825708872</v>
       </c>
       <c r="J4">
-        <v>0.4560190159371293</v>
+        <v>0.4523680639381478</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.21779351274477</v>
+        <v>1.297988333333333</v>
       </c>
       <c r="N4">
-        <v>1.21779351274477</v>
+        <v>3.893965</v>
       </c>
       <c r="O4">
-        <v>0.01389567502761192</v>
+        <v>0.01418766088625051</v>
       </c>
       <c r="P4">
-        <v>0.01389567502761192</v>
+        <v>0.01552840760877916</v>
       </c>
       <c r="Q4">
-        <v>11.58574175774649</v>
+        <v>12.58334010957</v>
       </c>
       <c r="R4">
-        <v>11.58574175774649</v>
+        <v>113.25006098613</v>
       </c>
       <c r="S4">
-        <v>0.006336692051873731</v>
+        <v>0.006396046983074987</v>
       </c>
       <c r="T4">
-        <v>0.006336692051873731</v>
+        <v>0.007024555686025831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.51371610744873</v>
+        <v>9.694494000000001</v>
       </c>
       <c r="H5">
-        <v>9.51371610744873</v>
+        <v>29.083482</v>
       </c>
       <c r="I5">
-        <v>0.4560190159371293</v>
+        <v>0.4508175825708872</v>
       </c>
       <c r="J5">
-        <v>0.4560190159371293</v>
+        <v>0.4523680639381478</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>23.6967331926086</v>
+        <v>0.2722813333333333</v>
       </c>
       <c r="N5">
-        <v>23.6967331926086</v>
+        <v>0.816844</v>
       </c>
       <c r="O5">
-        <v>0.2703923942888716</v>
+        <v>0.002976170989972538</v>
       </c>
       <c r="P5">
-        <v>0.2703923942888716</v>
+        <v>0.003257421827054327</v>
       </c>
       <c r="Q5">
-        <v>225.4439922684354</v>
+        <v>2.639629752312</v>
       </c>
       <c r="R5">
-        <v>225.4439922684354</v>
+        <v>23.756667770808</v>
       </c>
       <c r="S5">
-        <v>0.1233040735604955</v>
+        <v>0.001341710211017024</v>
       </c>
       <c r="T5">
-        <v>0.1233040735604955</v>
+        <v>0.00147355360533443</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3488264071388</v>
+        <v>9.694494000000001</v>
       </c>
       <c r="H6">
-        <v>11.3488264071388</v>
+        <v>29.083482</v>
       </c>
       <c r="I6">
-        <v>0.5439809840628705</v>
+        <v>0.4508175825708872</v>
       </c>
       <c r="J6">
-        <v>0.5439809840628705</v>
+        <v>0.4523680639381478</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.8800794591802</v>
+        <v>23.69742</v>
       </c>
       <c r="N6">
-        <v>60.8800794591802</v>
+        <v>47.39484</v>
       </c>
       <c r="O6">
-        <v>0.6946742538587175</v>
+        <v>0.2590246385155367</v>
       </c>
       <c r="P6">
-        <v>0.6946742538587175</v>
+        <v>0.1890017999835311</v>
       </c>
       <c r="Q6">
-        <v>690.9174534350527</v>
+        <v>229.73449600548</v>
       </c>
       <c r="R6">
-        <v>690.9174534350527</v>
+        <v>1378.40697603288</v>
       </c>
       <c r="S6">
-        <v>0.3778895842172055</v>
+        <v>0.1167728613618722</v>
       </c>
       <c r="T6">
-        <v>0.3778895842172055</v>
+        <v>0.08549837833937504</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3488264071388</v>
+        <v>11.58864</v>
       </c>
       <c r="H7">
-        <v>11.3488264071388</v>
+        <v>34.76592</v>
       </c>
       <c r="I7">
-        <v>0.5439809840628705</v>
+        <v>0.5388999848867084</v>
       </c>
       <c r="J7">
-        <v>0.5439809840628705</v>
+        <v>0.540753405023117</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.84370649929225</v>
+        <v>63.24146666666667</v>
       </c>
       <c r="N7">
-        <v>1.84370649929225</v>
+        <v>189.7244</v>
       </c>
       <c r="O7">
-        <v>0.02103767682479892</v>
+        <v>0.691260822592742</v>
       </c>
       <c r="P7">
-        <v>0.02103767682479892</v>
+        <v>0.7565855924568045</v>
       </c>
       <c r="Q7">
-        <v>20.92390500618132</v>
+        <v>732.882590272</v>
       </c>
       <c r="R7">
-        <v>20.92390500618132</v>
+        <v>6595.943312448</v>
       </c>
       <c r="S7">
-        <v>0.01144409614155076</v>
+        <v>0.3725204468480023</v>
       </c>
       <c r="T7">
-        <v>0.01144409614155076</v>
+        <v>0.4091262353124493</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.3488264071388</v>
+        <v>11.58864</v>
       </c>
       <c r="H8">
-        <v>11.3488264071388</v>
+        <v>34.76592</v>
       </c>
       <c r="I8">
-        <v>0.5439809840628705</v>
+        <v>0.5388999848867084</v>
       </c>
       <c r="J8">
-        <v>0.5439809840628705</v>
+        <v>0.540753405023117</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.21779351274477</v>
+        <v>2.977970666666666</v>
       </c>
       <c r="N8">
-        <v>1.21779351274477</v>
+        <v>8.933911999999999</v>
       </c>
       <c r="O8">
-        <v>0.01389567502761192</v>
+        <v>0.0325507070154981</v>
       </c>
       <c r="P8">
-        <v>0.01389567502761192</v>
+        <v>0.03562677812383096</v>
       </c>
       <c r="Q8">
-        <v>13.82052717588017</v>
+        <v>34.51062998656</v>
       </c>
       <c r="R8">
-        <v>13.82052717588017</v>
+        <v>310.59566987904</v>
       </c>
       <c r="S8">
-        <v>0.007558982975738189</v>
+        <v>0.0175415755187036</v>
       </c>
       <c r="T8">
-        <v>0.007558982975738189</v>
+        <v>0.01926530158046469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.58864</v>
+      </c>
+      <c r="H9">
+        <v>34.76592</v>
+      </c>
+      <c r="I9">
+        <v>0.5388999848867084</v>
+      </c>
+      <c r="J9">
+        <v>0.540753405023117</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.297988333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.893965</v>
+      </c>
+      <c r="O9">
+        <v>0.01418766088625051</v>
+      </c>
+      <c r="P9">
+        <v>0.01552840760877916</v>
+      </c>
+      <c r="Q9">
+        <v>15.0419195192</v>
+      </c>
+      <c r="R9">
+        <v>135.3772756728</v>
+      </c>
+      <c r="S9">
+        <v>0.007645730237178145</v>
+      </c>
+      <c r="T9">
+        <v>0.008397039289034207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.58864</v>
+      </c>
+      <c r="H10">
+        <v>34.76592</v>
+      </c>
+      <c r="I10">
+        <v>0.5388999848867084</v>
+      </c>
+      <c r="J10">
+        <v>0.540753405023117</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2722813333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.816844</v>
+      </c>
+      <c r="O10">
+        <v>0.002976170989972538</v>
+      </c>
+      <c r="P10">
+        <v>0.003257421827054327</v>
+      </c>
+      <c r="Q10">
+        <v>3.15537035072</v>
+      </c>
+      <c r="R10">
+        <v>28.39833315648</v>
+      </c>
+      <c r="S10">
+        <v>0.001603858501516461</v>
+      </c>
+      <c r="T10">
+        <v>0.00176146194457625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.58864</v>
+      </c>
+      <c r="H11">
+        <v>34.76592</v>
+      </c>
+      <c r="I11">
+        <v>0.5388999848867084</v>
+      </c>
+      <c r="J11">
+        <v>0.540753405023117</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>23.69742</v>
+      </c>
+      <c r="N11">
+        <v>47.39484</v>
+      </c>
+      <c r="O11">
+        <v>0.2590246385155367</v>
+      </c>
+      <c r="P11">
+        <v>0.1890017999835311</v>
+      </c>
+      <c r="Q11">
+        <v>274.6208693088</v>
+      </c>
+      <c r="R11">
+        <v>1647.7252158528</v>
+      </c>
+      <c r="S11">
+        <v>0.1395883737813078</v>
+      </c>
+      <c r="T11">
+        <v>0.1022033668965926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.221116</v>
+      </c>
+      <c r="H12">
+        <v>0.442232</v>
+      </c>
+      <c r="I12">
+        <v>0.01028243254240441</v>
+      </c>
+      <c r="J12">
+        <v>0.006878531038735149</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>63.24146666666667</v>
+      </c>
+      <c r="N12">
+        <v>189.7244</v>
+      </c>
+      <c r="O12">
+        <v>0.691260822592742</v>
+      </c>
+      <c r="P12">
+        <v>0.7565855924568045</v>
+      </c>
+      <c r="Q12">
+        <v>13.98370014346667</v>
+      </c>
+      <c r="R12">
+        <v>83.90220086080001</v>
+      </c>
+      <c r="S12">
+        <v>0.007107842777516852</v>
+      </c>
+      <c r="T12">
+        <v>0.005204197481173951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>11.3488264071388</v>
-      </c>
-      <c r="H9">
-        <v>11.3488264071388</v>
-      </c>
-      <c r="I9">
-        <v>0.5439809840628705</v>
-      </c>
-      <c r="J9">
-        <v>0.5439809840628705</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>23.6967331926086</v>
-      </c>
-      <c r="N9">
-        <v>23.6967331926086</v>
-      </c>
-      <c r="O9">
-        <v>0.2703923942888716</v>
-      </c>
-      <c r="P9">
-        <v>0.2703923942888716</v>
-      </c>
-      <c r="Q9">
-        <v>268.930111419199</v>
-      </c>
-      <c r="R9">
-        <v>268.930111419199</v>
-      </c>
-      <c r="S9">
-        <v>0.147088320728376</v>
-      </c>
-      <c r="T9">
-        <v>0.147088320728376</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.221116</v>
+      </c>
+      <c r="H13">
+        <v>0.442232</v>
+      </c>
+      <c r="I13">
+        <v>0.01028243254240441</v>
+      </c>
+      <c r="J13">
+        <v>0.006878531038735149</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.977970666666666</v>
+      </c>
+      <c r="N13">
+        <v>8.933911999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.0325507070154981</v>
+      </c>
+      <c r="P13">
+        <v>0.03562677812383096</v>
+      </c>
+      <c r="Q13">
+        <v>0.6584769619306666</v>
+      </c>
+      <c r="R13">
+        <v>3.950861771584</v>
+      </c>
+      <c r="S13">
+        <v>0.0003347004490944292</v>
+      </c>
+      <c r="T13">
+        <v>0.0002450598991349016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.221116</v>
+      </c>
+      <c r="H14">
+        <v>0.442232</v>
+      </c>
+      <c r="I14">
+        <v>0.01028243254240441</v>
+      </c>
+      <c r="J14">
+        <v>0.006878531038735149</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.297988333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.893965</v>
+      </c>
+      <c r="O14">
+        <v>0.01418766088625051</v>
+      </c>
+      <c r="P14">
+        <v>0.01552840760877916</v>
+      </c>
+      <c r="Q14">
+        <v>0.2870059883133333</v>
+      </c>
+      <c r="R14">
+        <v>1.72203592988</v>
+      </c>
+      <c r="S14">
+        <v>0.0001458836659973804</v>
+      </c>
+      <c r="T14">
+        <v>0.0001068126337191185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.221116</v>
+      </c>
+      <c r="H15">
+        <v>0.442232</v>
+      </c>
+      <c r="I15">
+        <v>0.01028243254240441</v>
+      </c>
+      <c r="J15">
+        <v>0.006878531038735149</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.2722813333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.816844</v>
+      </c>
+      <c r="O15">
+        <v>0.002976170989972538</v>
+      </c>
+      <c r="P15">
+        <v>0.003257421827054327</v>
+      </c>
+      <c r="Q15">
+        <v>0.06020575930133333</v>
+      </c>
+      <c r="R15">
+        <v>0.361234555808</v>
+      </c>
+      <c r="S15">
+        <v>3.060227743905357E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.240627714364655E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.221116</v>
+      </c>
+      <c r="H16">
+        <v>0.442232</v>
+      </c>
+      <c r="I16">
+        <v>0.01028243254240441</v>
+      </c>
+      <c r="J16">
+        <v>0.006878531038735149</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>23.69742</v>
+      </c>
+      <c r="N16">
+        <v>47.39484</v>
+      </c>
+      <c r="O16">
+        <v>0.2590246385155367</v>
+      </c>
+      <c r="P16">
+        <v>0.1890017999835311</v>
+      </c>
+      <c r="Q16">
+        <v>5.23987872072</v>
+      </c>
+      <c r="R16">
+        <v>20.95951488288</v>
+      </c>
+      <c r="S16">
+        <v>0.002663403372356693</v>
+      </c>
+      <c r="T16">
+        <v>0.001300054747563531</v>
       </c>
     </row>
   </sheetData>
